--- a/doc/表结构一览.xlsx
+++ b/doc/表结构一览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nature/Documents/workspace/kunter-generator/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E3B6C3EC-DAEB-4241-9F19-D42A150BC6E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34C1DED3-93F8-AC4F-B941-E039502077FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="56">
   <si>
     <t/>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>修正者</t>
-  </si>
-  <si>
-    <t>表一览</t>
   </si>
   <si>
     <t>No.</t>
@@ -2077,7 +2074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2100,13 +2097,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2992,6 +3026,18 @@
     <xf numFmtId="0" fontId="292" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3001,32 +3047,35 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4006,9 +4055,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1">
-      <c r="A1" s="294" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="294"/>
       <c r="B1" s="293"/>
       <c r="C1" s="293"/>
       <c r="D1" s="293"/>
@@ -4019,22 +4066,22 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="291" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="291" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="291" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="291" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="291" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="291" t="s">
+      <c r="F2" s="291" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="291" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="291" t="s">
         <v>7</v>
@@ -4371,1572 +4418,1712 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="17.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="295" t="s">
+    <row r="1" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A1" s="299" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="300" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="299" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="300"/>
+      <c r="AC1" s="300"/>
+      <c r="AD1" s="300"/>
+      <c r="AE1" s="300"/>
+      <c r="AF1" s="300"/>
+      <c r="AG1" s="300"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="299" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" s="299"/>
+      <c r="AK1" s="299"/>
+      <c r="AL1" s="299"/>
+      <c r="AM1" s="299"/>
+      <c r="AN1" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="300"/>
+      <c r="AP1" s="300"/>
+      <c r="AQ1" s="300"/>
+      <c r="AR1" s="300"/>
+      <c r="AS1" s="300"/>
+    </row>
+    <row r="2" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A2" s="299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="300" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="300"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="299" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="299" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="299"/>
+      <c r="AK2" s="299"/>
+      <c r="AL2" s="299"/>
+      <c r="AM2" s="299"/>
+      <c r="AN2" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="301"/>
+      <c r="AP2" s="301"/>
+      <c r="AQ2" s="301"/>
+      <c r="AR2" s="301"/>
+      <c r="AS2" s="301"/>
+    </row>
+    <row r="3" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A3" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="296" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296"/>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="295" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="296"/>
-      <c r="AH1" s="296"/>
-      <c r="AI1" s="295" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ1" s="295"/>
-      <c r="AK1" s="295"/>
-      <c r="AL1" s="295"/>
-      <c r="AM1" s="295"/>
-      <c r="AN1" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="296"/>
-      <c r="AP1" s="296"/>
-      <c r="AQ1" s="296"/>
-      <c r="AR1" s="296"/>
-      <c r="AS1" s="296"/>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" s="295" t="s">
+      <c r="B3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="309"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="310"/>
+      <c r="R3" s="310"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="310"/>
+      <c r="U3" s="310"/>
+      <c r="V3" s="310"/>
+      <c r="W3" s="310"/>
+      <c r="X3" s="310"/>
+      <c r="Y3" s="310"/>
+      <c r="Z3" s="310"/>
+      <c r="AA3" s="310"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="310"/>
+      <c r="AD3" s="310"/>
+      <c r="AE3" s="310"/>
+      <c r="AF3" s="310"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="310"/>
+      <c r="AJ3" s="310"/>
+      <c r="AK3" s="310"/>
+      <c r="AL3" s="310"/>
+      <c r="AM3" s="310"/>
+      <c r="AN3" s="310"/>
+      <c r="AO3" s="311"/>
+      <c r="AP3" s="306" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="296" t="s">
+      <c r="AQ3" s="307"/>
+      <c r="AR3" s="307"/>
+      <c r="AS3" s="308"/>
+    </row>
+    <row r="4" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="303"/>
+      <c r="AF4" s="303"/>
+      <c r="AG4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="303" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A5" s="302" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="302" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="302" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="302" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="302" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="302" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="302" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="302" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="302" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="302" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="295" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="295" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="295"/>
-      <c r="AK2" s="295"/>
-      <c r="AL2" s="295"/>
-      <c r="AM2" s="295"/>
-      <c r="AN2" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="297"/>
-      <c r="AP2" s="297"/>
-      <c r="AQ2" s="297"/>
-      <c r="AR2" s="297"/>
-      <c r="AS2" s="297"/>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="295" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
-      <c r="L3" s="296"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="296"/>
-      <c r="O3" s="296"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
-      <c r="U3" s="296"/>
-      <c r="V3" s="296"/>
-      <c r="W3" s="296"/>
-      <c r="X3" s="296"/>
-      <c r="Y3" s="296"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="296"/>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="296"/>
-      <c r="AH3" s="296"/>
-      <c r="AI3" s="296"/>
-      <c r="AJ3" s="296"/>
-      <c r="AK3" s="296"/>
-      <c r="AL3" s="296"/>
-      <c r="AM3" s="296"/>
-      <c r="AN3" s="296"/>
-      <c r="AO3" s="298" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="296" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="299"/>
-      <c r="AF4" s="299"/>
-      <c r="AG4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="299" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="300" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="300" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="300" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="300" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="300" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="300" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="300" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="300" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="300" t="s">
+      <c r="AF5" s="300"/>
+      <c r="AG5" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="300" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" s="296"/>
-      <c r="AG5" s="300" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="301" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" s="301">
+      <c r="AH5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="304" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A6" s="304">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="296"/>
-      <c r="N6" s="301"/>
-      <c r="O6" s="296"/>
-      <c r="P6" s="296"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="296"/>
-      <c r="S6" s="296"/>
-      <c r="T6" s="296"/>
-      <c r="U6" s="296"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="296"/>
-      <c r="X6" s="301"/>
-      <c r="Y6" s="296"/>
-      <c r="Z6" s="301"/>
-      <c r="AA6" s="296"/>
-      <c r="AB6" s="296"/>
-      <c r="AC6" s="301"/>
-      <c r="AD6" s="296"/>
-      <c r="AE6" s="301"/>
-      <c r="AF6" s="301"/>
-      <c r="AG6" s="302"/>
-      <c r="AH6" s="302"/>
-      <c r="AI6" s="302"/>
-      <c r="AJ6" s="302"/>
-      <c r="AK6" s="302"/>
-      <c r="AL6" s="302"/>
-      <c r="AM6" s="302"/>
-      <c r="AN6" s="302"/>
-      <c r="AO6" s="302"/>
-      <c r="AP6" s="302"/>
-      <c r="AQ6" s="302"/>
-      <c r="AR6" s="302"/>
-      <c r="AS6" s="302"/>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" s="301">
+      <c r="B6" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="304"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="304"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="304"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="304"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="300"/>
+      <c r="AC6" s="304"/>
+      <c r="AD6" s="300"/>
+      <c r="AE6" s="304"/>
+      <c r="AF6" s="304"/>
+      <c r="AG6" s="305"/>
+      <c r="AH6" s="305"/>
+      <c r="AI6" s="305"/>
+      <c r="AJ6" s="305"/>
+      <c r="AK6" s="305"/>
+      <c r="AL6" s="305"/>
+      <c r="AM6" s="305"/>
+      <c r="AN6" s="305"/>
+      <c r="AO6" s="305"/>
+      <c r="AP6" s="305"/>
+      <c r="AQ6" s="305"/>
+      <c r="AR6" s="305"/>
+      <c r="AS6" s="305"/>
+    </row>
+    <row r="7" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A7" s="304">
         <f t="shared" ref="A7:A20" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="296"/>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="301"/>
-      <c r="O7" s="296"/>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="301"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="301"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="301"/>
-      <c r="AA7" s="296"/>
-      <c r="AB7" s="296"/>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="301"/>
-      <c r="AF7" s="301"/>
-      <c r="AG7" s="302"/>
-      <c r="AH7" s="302"/>
-      <c r="AI7" s="302"/>
-      <c r="AJ7" s="302"/>
-      <c r="AK7" s="302"/>
-      <c r="AL7" s="302"/>
-      <c r="AM7" s="302"/>
-      <c r="AN7" s="302"/>
-      <c r="AO7" s="302"/>
-      <c r="AP7" s="302"/>
-      <c r="AQ7" s="302"/>
-      <c r="AR7" s="302"/>
-      <c r="AS7" s="302"/>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" s="301">
+      <c r="B7" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="300"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="300"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="300"/>
+      <c r="T7" s="300"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="304"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="304"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="304"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="304"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="304"/>
+      <c r="AF7" s="304"/>
+      <c r="AG7" s="305"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="305"/>
+      <c r="AJ7" s="305"/>
+      <c r="AK7" s="305"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="305"/>
+      <c r="AN7" s="305"/>
+      <c r="AO7" s="305"/>
+      <c r="AP7" s="305"/>
+      <c r="AQ7" s="305"/>
+      <c r="AR7" s="305"/>
+      <c r="AS7" s="305"/>
+    </row>
+    <row r="8" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A8" s="304">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="296"/>
-      <c r="L8" s="296"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="296"/>
-      <c r="Q8" s="296"/>
-      <c r="R8" s="296"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="301"/>
-      <c r="W8" s="296"/>
-      <c r="X8" s="301"/>
-      <c r="Y8" s="296"/>
-      <c r="Z8" s="301"/>
-      <c r="AA8" s="296"/>
-      <c r="AB8" s="296"/>
-      <c r="AC8" s="301"/>
-      <c r="AD8" s="296"/>
-      <c r="AE8" s="301"/>
-      <c r="AF8" s="301"/>
-      <c r="AG8" s="302"/>
-      <c r="AH8" s="302"/>
-      <c r="AI8" s="302"/>
-      <c r="AJ8" s="302"/>
-      <c r="AK8" s="302"/>
-      <c r="AL8" s="302"/>
-      <c r="AM8" s="302"/>
-      <c r="AN8" s="302"/>
-      <c r="AO8" s="302"/>
-      <c r="AP8" s="302"/>
-      <c r="AQ8" s="302"/>
-      <c r="AR8" s="302"/>
-      <c r="AS8" s="302"/>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" s="301">
+      <c r="B8" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="300"/>
+      <c r="L8" s="300"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="304"/>
+      <c r="O8" s="300"/>
+      <c r="P8" s="300"/>
+      <c r="Q8" s="300"/>
+      <c r="R8" s="300"/>
+      <c r="S8" s="300"/>
+      <c r="T8" s="300"/>
+      <c r="U8" s="300"/>
+      <c r="V8" s="304"/>
+      <c r="W8" s="300"/>
+      <c r="X8" s="304"/>
+      <c r="Y8" s="300"/>
+      <c r="Z8" s="304"/>
+      <c r="AA8" s="300"/>
+      <c r="AB8" s="300"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="300"/>
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="305"/>
+      <c r="AH8" s="305"/>
+      <c r="AI8" s="305"/>
+      <c r="AJ8" s="305"/>
+      <c r="AK8" s="305"/>
+      <c r="AL8" s="305"/>
+      <c r="AM8" s="305"/>
+      <c r="AN8" s="305"/>
+      <c r="AO8" s="305"/>
+      <c r="AP8" s="305"/>
+      <c r="AQ8" s="305"/>
+      <c r="AR8" s="305"/>
+      <c r="AS8" s="305"/>
+    </row>
+    <row r="9" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A9" s="304">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="301"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="301"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="301"/>
-      <c r="AD9" s="296"/>
-      <c r="AE9" s="301"/>
-      <c r="AF9" s="301"/>
-      <c r="AG9" s="302"/>
-      <c r="AH9" s="302"/>
-      <c r="AI9" s="302"/>
-      <c r="AJ9" s="302"/>
-      <c r="AK9" s="302"/>
-      <c r="AL9" s="302"/>
-      <c r="AM9" s="302"/>
-      <c r="AN9" s="302"/>
-      <c r="AO9" s="302"/>
-      <c r="AP9" s="302"/>
-      <c r="AQ9" s="302"/>
-      <c r="AR9" s="302"/>
-      <c r="AS9" s="302"/>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" s="301">
+      <c r="B9" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="300"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="300"/>
+      <c r="L9" s="300"/>
+      <c r="M9" s="300"/>
+      <c r="N9" s="304"/>
+      <c r="O9" s="300"/>
+      <c r="P9" s="300"/>
+      <c r="Q9" s="300"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="300"/>
+      <c r="V9" s="304"/>
+      <c r="W9" s="300"/>
+      <c r="X9" s="304"/>
+      <c r="Y9" s="300"/>
+      <c r="Z9" s="304"/>
+      <c r="AA9" s="300"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="304"/>
+      <c r="AD9" s="300"/>
+      <c r="AE9" s="304"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="305"/>
+      <c r="AH9" s="305"/>
+      <c r="AI9" s="305"/>
+      <c r="AJ9" s="305"/>
+      <c r="AK9" s="305"/>
+      <c r="AL9" s="305"/>
+      <c r="AM9" s="305"/>
+      <c r="AN9" s="305"/>
+      <c r="AO9" s="305"/>
+      <c r="AP9" s="305"/>
+      <c r="AQ9" s="305"/>
+      <c r="AR9" s="305"/>
+      <c r="AS9" s="305"/>
+    </row>
+    <row r="10" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A10" s="304">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-      <c r="K10" s="296"/>
-      <c r="L10" s="296"/>
-      <c r="M10" s="296"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="296"/>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="301"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="301"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="301"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="301"/>
-      <c r="AF10" s="301"/>
-      <c r="AG10" s="302"/>
-      <c r="AH10" s="302"/>
-      <c r="AI10" s="302"/>
-      <c r="AJ10" s="302"/>
-      <c r="AK10" s="302"/>
-      <c r="AL10" s="302"/>
-      <c r="AM10" s="302"/>
-      <c r="AN10" s="302"/>
-      <c r="AO10" s="302"/>
-      <c r="AP10" s="302"/>
-      <c r="AQ10" s="302"/>
-      <c r="AR10" s="302"/>
-      <c r="AS10" s="302"/>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" s="301">
+      <c r="B10" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="300"/>
+      <c r="L10" s="300"/>
+      <c r="M10" s="300"/>
+      <c r="N10" s="304"/>
+      <c r="O10" s="300"/>
+      <c r="P10" s="300"/>
+      <c r="Q10" s="300"/>
+      <c r="R10" s="300"/>
+      <c r="S10" s="300"/>
+      <c r="T10" s="300"/>
+      <c r="U10" s="300"/>
+      <c r="V10" s="304"/>
+      <c r="W10" s="300"/>
+      <c r="X10" s="304"/>
+      <c r="Y10" s="300"/>
+      <c r="Z10" s="304"/>
+      <c r="AA10" s="300"/>
+      <c r="AB10" s="300"/>
+      <c r="AC10" s="304"/>
+      <c r="AD10" s="300"/>
+      <c r="AE10" s="304"/>
+      <c r="AF10" s="304"/>
+      <c r="AG10" s="305"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="305"/>
+      <c r="AJ10" s="305"/>
+      <c r="AK10" s="305"/>
+      <c r="AL10" s="305"/>
+      <c r="AM10" s="305"/>
+      <c r="AN10" s="305"/>
+      <c r="AO10" s="305"/>
+      <c r="AP10" s="305"/>
+      <c r="AQ10" s="305"/>
+      <c r="AR10" s="305"/>
+      <c r="AS10" s="305"/>
+    </row>
+    <row r="11" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A11" s="304">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="296"/>
-      <c r="J11" s="296"/>
-      <c r="K11" s="296"/>
-      <c r="L11" s="296"/>
-      <c r="M11" s="296"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="296"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
-      <c r="V11" s="301"/>
-      <c r="W11" s="296"/>
-      <c r="X11" s="301"/>
-      <c r="Y11" s="296"/>
-      <c r="Z11" s="301"/>
-      <c r="AA11" s="296"/>
-      <c r="AB11" s="296"/>
-      <c r="AC11" s="301"/>
-      <c r="AD11" s="296"/>
-      <c r="AE11" s="301"/>
-      <c r="AF11" s="301"/>
-      <c r="AG11" s="302"/>
-      <c r="AH11" s="302"/>
-      <c r="AI11" s="302"/>
-      <c r="AJ11" s="302"/>
-      <c r="AK11" s="302"/>
-      <c r="AL11" s="302"/>
-      <c r="AM11" s="302"/>
-      <c r="AN11" s="302"/>
-      <c r="AO11" s="302"/>
-      <c r="AP11" s="302"/>
-      <c r="AQ11" s="302"/>
-      <c r="AR11" s="302"/>
-      <c r="AS11" s="302"/>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" s="301">
+      <c r="B11" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="300"/>
+      <c r="L11" s="300"/>
+      <c r="M11" s="300"/>
+      <c r="N11" s="304"/>
+      <c r="O11" s="300"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="300"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="300"/>
+      <c r="T11" s="300"/>
+      <c r="U11" s="300"/>
+      <c r="V11" s="304"/>
+      <c r="W11" s="300"/>
+      <c r="X11" s="304"/>
+      <c r="Y11" s="300"/>
+      <c r="Z11" s="304"/>
+      <c r="AA11" s="300"/>
+      <c r="AB11" s="300"/>
+      <c r="AC11" s="304"/>
+      <c r="AD11" s="300"/>
+      <c r="AE11" s="304"/>
+      <c r="AF11" s="304"/>
+      <c r="AG11" s="305"/>
+      <c r="AH11" s="305"/>
+      <c r="AI11" s="305"/>
+      <c r="AJ11" s="305"/>
+      <c r="AK11" s="305"/>
+      <c r="AL11" s="305"/>
+      <c r="AM11" s="305"/>
+      <c r="AN11" s="305"/>
+      <c r="AO11" s="305"/>
+      <c r="AP11" s="305"/>
+      <c r="AQ11" s="305"/>
+      <c r="AR11" s="305"/>
+      <c r="AS11" s="305"/>
+    </row>
+    <row r="12" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A12" s="304">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="296"/>
-      <c r="K12" s="296"/>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="296"/>
-      <c r="P12" s="296"/>
-      <c r="Q12" s="296"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="301"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="301"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="301"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="301"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="301"/>
-      <c r="AF12" s="301"/>
-      <c r="AG12" s="302"/>
-      <c r="AH12" s="302"/>
-      <c r="AI12" s="302"/>
-      <c r="AJ12" s="302"/>
-      <c r="AK12" s="302"/>
-      <c r="AL12" s="302"/>
-      <c r="AM12" s="302"/>
-      <c r="AN12" s="302"/>
-      <c r="AO12" s="302"/>
-      <c r="AP12" s="302"/>
-      <c r="AQ12" s="302"/>
-      <c r="AR12" s="302"/>
-      <c r="AS12" s="302"/>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" s="301">
+      <c r="B12" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="303"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="304"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="300"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="300"/>
+      <c r="T12" s="300"/>
+      <c r="U12" s="300"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="304"/>
+      <c r="Y12" s="300"/>
+      <c r="Z12" s="304"/>
+      <c r="AA12" s="300"/>
+      <c r="AB12" s="300"/>
+      <c r="AC12" s="304"/>
+      <c r="AD12" s="300"/>
+      <c r="AE12" s="304"/>
+      <c r="AF12" s="304"/>
+      <c r="AG12" s="305"/>
+      <c r="AH12" s="305"/>
+      <c r="AI12" s="305"/>
+      <c r="AJ12" s="305"/>
+      <c r="AK12" s="305"/>
+      <c r="AL12" s="305"/>
+      <c r="AM12" s="305"/>
+      <c r="AN12" s="305"/>
+      <c r="AO12" s="305"/>
+      <c r="AP12" s="305"/>
+      <c r="AQ12" s="305"/>
+      <c r="AR12" s="305"/>
+      <c r="AS12" s="305"/>
+    </row>
+    <row r="13" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A13" s="304">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="299" t="s">
+      <c r="B13" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="303" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="303"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
+      <c r="I13" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299" t="s">
+      <c r="J13" s="303"/>
+      <c r="K13" s="303"/>
+      <c r="L13" s="303"/>
+      <c r="M13" s="303"/>
+      <c r="N13" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="299"/>
-      <c r="M13" s="299"/>
-      <c r="N13" s="301" t="s">
+      <c r="O13" s="300"/>
+      <c r="P13" s="300"/>
+      <c r="Q13" s="300"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="300">
+        <v>11</v>
+      </c>
+      <c r="T13" s="300"/>
+      <c r="U13" s="300"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="304"/>
+      <c r="AB13" s="304"/>
+      <c r="AC13" s="304"/>
+      <c r="AD13" s="304"/>
+      <c r="AE13" s="304"/>
+      <c r="AF13" s="304"/>
+      <c r="AG13" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="296"/>
-      <c r="P13" s="296"/>
-      <c r="Q13" s="296"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="296">
-        <v>11</v>
-      </c>
-      <c r="T13" s="296"/>
-      <c r="U13" s="296"/>
-      <c r="V13" s="301"/>
-      <c r="W13" s="301"/>
-      <c r="X13" s="301"/>
-      <c r="Y13" s="301"/>
-      <c r="Z13" s="301"/>
-      <c r="AA13" s="301"/>
-      <c r="AB13" s="301"/>
-      <c r="AC13" s="301"/>
-      <c r="AD13" s="301"/>
-      <c r="AE13" s="301"/>
-      <c r="AF13" s="301"/>
-      <c r="AG13" s="302" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH13" s="302"/>
-      <c r="AI13" s="302"/>
-      <c r="AJ13" s="302"/>
-      <c r="AK13" s="302"/>
-      <c r="AL13" s="302"/>
-      <c r="AM13" s="302"/>
-      <c r="AN13" s="302"/>
-      <c r="AO13" s="302"/>
-      <c r="AP13" s="302"/>
-      <c r="AQ13" s="302"/>
-      <c r="AR13" s="302"/>
-      <c r="AS13" s="302"/>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" s="301">
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="305"/>
+      <c r="AJ13" s="305"/>
+      <c r="AK13" s="305"/>
+      <c r="AL13" s="305"/>
+      <c r="AM13" s="305"/>
+      <c r="AN13" s="305"/>
+      <c r="AO13" s="305"/>
+      <c r="AP13" s="305"/>
+      <c r="AQ13" s="305"/>
+      <c r="AR13" s="305"/>
+      <c r="AS13" s="305"/>
+    </row>
+    <row r="14" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A14" s="304">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="299" t="s">
+      <c r="B14" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="303" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="303"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="303"/>
+      <c r="I14" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299" t="s">
+      <c r="J14" s="303"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="303"/>
+      <c r="N14" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="301" t="s">
+      <c r="O14" s="300"/>
+      <c r="P14" s="300"/>
+      <c r="Q14" s="300"/>
+      <c r="R14" s="300"/>
+      <c r="S14" s="300">
+        <v>20</v>
+      </c>
+      <c r="T14" s="300"/>
+      <c r="U14" s="300"/>
+      <c r="V14" s="304"/>
+      <c r="W14" s="304"/>
+      <c r="X14" s="304"/>
+      <c r="Y14" s="304"/>
+      <c r="Z14" s="304"/>
+      <c r="AA14" s="304"/>
+      <c r="AB14" s="304"/>
+      <c r="AC14" s="304"/>
+      <c r="AD14" s="304"/>
+      <c r="AE14" s="304"/>
+      <c r="AF14" s="304"/>
+      <c r="AG14" s="305" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="296"/>
-      <c r="P14" s="296"/>
-      <c r="Q14" s="296"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="296">
-        <v>20</v>
-      </c>
-      <c r="T14" s="296"/>
-      <c r="U14" s="296"/>
-      <c r="V14" s="301"/>
-      <c r="W14" s="301"/>
-      <c r="X14" s="301"/>
-      <c r="Y14" s="301"/>
-      <c r="Z14" s="301"/>
-      <c r="AA14" s="301"/>
-      <c r="AB14" s="301"/>
-      <c r="AC14" s="301"/>
-      <c r="AD14" s="301"/>
-      <c r="AE14" s="301"/>
-      <c r="AF14" s="301"/>
-      <c r="AG14" s="302" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH14" s="302"/>
-      <c r="AI14" s="302"/>
-      <c r="AJ14" s="302"/>
-      <c r="AK14" s="302"/>
-      <c r="AL14" s="302"/>
-      <c r="AM14" s="302"/>
-      <c r="AN14" s="302"/>
-      <c r="AO14" s="302"/>
-      <c r="AP14" s="302"/>
-      <c r="AQ14" s="302"/>
-      <c r="AR14" s="302"/>
-      <c r="AS14" s="302"/>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" s="301">
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="305"/>
+      <c r="AJ14" s="305"/>
+      <c r="AK14" s="305"/>
+      <c r="AL14" s="305"/>
+      <c r="AM14" s="305"/>
+      <c r="AN14" s="305"/>
+      <c r="AO14" s="305"/>
+      <c r="AP14" s="305"/>
+      <c r="AQ14" s="305"/>
+      <c r="AR14" s="305"/>
+      <c r="AS14" s="305"/>
+    </row>
+    <row r="15" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A15" s="304">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="299" t="s">
+      <c r="B15" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="303" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="303" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299" t="s">
+      <c r="J15" s="303"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
+      <c r="M15" s="303"/>
+      <c r="N15" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="299"/>
-      <c r="N15" s="301" t="s">
+      <c r="O15" s="300"/>
+      <c r="P15" s="300"/>
+      <c r="Q15" s="300"/>
+      <c r="R15" s="300"/>
+      <c r="S15" s="300">
+        <v>64</v>
+      </c>
+      <c r="T15" s="300"/>
+      <c r="U15" s="300"/>
+      <c r="V15" s="304"/>
+      <c r="W15" s="304"/>
+      <c r="X15" s="304"/>
+      <c r="Y15" s="304"/>
+      <c r="Z15" s="304"/>
+      <c r="AA15" s="304"/>
+      <c r="AB15" s="304"/>
+      <c r="AC15" s="304"/>
+      <c r="AD15" s="304"/>
+      <c r="AE15" s="304"/>
+      <c r="AF15" s="304"/>
+      <c r="AG15" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="296"/>
-      <c r="P15" s="296"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="296">
-        <v>64</v>
-      </c>
-      <c r="T15" s="296"/>
-      <c r="U15" s="296"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="301"/>
-      <c r="X15" s="301"/>
-      <c r="Y15" s="301"/>
-      <c r="Z15" s="301"/>
-      <c r="AA15" s="301"/>
-      <c r="AB15" s="301"/>
-      <c r="AC15" s="301"/>
-      <c r="AD15" s="301"/>
-      <c r="AE15" s="301"/>
-      <c r="AF15" s="301"/>
-      <c r="AG15" s="302" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" s="302"/>
-      <c r="AI15" s="302"/>
-      <c r="AJ15" s="302"/>
-      <c r="AK15" s="302"/>
-      <c r="AL15" s="302"/>
-      <c r="AM15" s="302"/>
-      <c r="AN15" s="302"/>
-      <c r="AO15" s="302"/>
-      <c r="AP15" s="302"/>
-      <c r="AQ15" s="302"/>
-      <c r="AR15" s="302"/>
-      <c r="AS15" s="302"/>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" s="301">
+      <c r="AH15" s="305"/>
+      <c r="AI15" s="305"/>
+      <c r="AJ15" s="305"/>
+      <c r="AK15" s="305"/>
+      <c r="AL15" s="305"/>
+      <c r="AM15" s="305"/>
+      <c r="AN15" s="305"/>
+      <c r="AO15" s="305"/>
+      <c r="AP15" s="305"/>
+      <c r="AQ15" s="305"/>
+      <c r="AR15" s="305"/>
+      <c r="AS15" s="305"/>
+    </row>
+    <row r="16" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A16" s="304">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="299" t="s">
+      <c r="B16" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="303" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="303"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299" t="s">
+      <c r="J16" s="303"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="303"/>
+      <c r="M16" s="303"/>
+      <c r="N16" s="304" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="300"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
+      <c r="R16" s="300"/>
+      <c r="S16" s="300">
+        <v>64</v>
+      </c>
+      <c r="T16" s="300"/>
+      <c r="U16" s="300"/>
+      <c r="V16" s="304"/>
+      <c r="W16" s="304"/>
+      <c r="X16" s="304"/>
+      <c r="Y16" s="304"/>
+      <c r="Z16" s="304"/>
+      <c r="AA16" s="304"/>
+      <c r="AB16" s="304"/>
+      <c r="AC16" s="304"/>
+      <c r="AD16" s="304"/>
+      <c r="AE16" s="304"/>
+      <c r="AF16" s="304"/>
+      <c r="AG16" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="301" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="296"/>
-      <c r="P16" s="296"/>
-      <c r="Q16" s="296"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="296">
-        <v>64</v>
-      </c>
-      <c r="T16" s="296"/>
-      <c r="U16" s="296"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
-      <c r="Y16" s="301"/>
-      <c r="Z16" s="301"/>
-      <c r="AA16" s="301"/>
-      <c r="AB16" s="301"/>
-      <c r="AC16" s="301"/>
-      <c r="AD16" s="301"/>
-      <c r="AE16" s="301"/>
-      <c r="AF16" s="301"/>
-      <c r="AG16" s="302" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH16" s="302"/>
-      <c r="AI16" s="302"/>
-      <c r="AJ16" s="302"/>
-      <c r="AK16" s="302"/>
-      <c r="AL16" s="302"/>
-      <c r="AM16" s="302"/>
-      <c r="AN16" s="302"/>
-      <c r="AO16" s="302"/>
-      <c r="AP16" s="302"/>
-      <c r="AQ16" s="302"/>
-      <c r="AR16" s="302"/>
-      <c r="AS16" s="302"/>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" s="301">
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="305"/>
+      <c r="AJ16" s="305"/>
+      <c r="AK16" s="305"/>
+      <c r="AL16" s="305"/>
+      <c r="AM16" s="305"/>
+      <c r="AN16" s="305"/>
+      <c r="AO16" s="305"/>
+      <c r="AP16" s="305"/>
+      <c r="AQ16" s="305"/>
+      <c r="AR16" s="305"/>
+      <c r="AS16" s="305"/>
+    </row>
+    <row r="17" spans="1:45" ht="17.5" customHeight="1">
+      <c r="A17" s="304">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="299" t="s">
+      <c r="B17" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="303" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299" t="s">
+      <c r="J17" s="303"/>
+      <c r="K17" s="303"/>
+      <c r="L17" s="303"/>
+      <c r="M17" s="303"/>
+      <c r="N17" s="304" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="301" t="s">
+      <c r="O17" s="300"/>
+      <c r="P17" s="300"/>
+      <c r="Q17" s="300"/>
+      <c r="R17" s="300"/>
+      <c r="S17" s="300"/>
+      <c r="T17" s="300"/>
+      <c r="U17" s="300"/>
+      <c r="V17" s="304"/>
+      <c r="W17" s="304"/>
+      <c r="X17" s="304"/>
+      <c r="Y17" s="304"/>
+      <c r="Z17" s="304"/>
+      <c r="AA17" s="304"/>
+      <c r="AB17" s="304"/>
+      <c r="AC17" s="304"/>
+      <c r="AD17" s="304"/>
+      <c r="AE17" s="304"/>
+      <c r="AF17" s="304"/>
+      <c r="AG17" s="305" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="296"/>
-      <c r="P17" s="296"/>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="296"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="301"/>
-      <c r="Z17" s="301"/>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="301"/>
-      <c r="AC17" s="301"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="301"/>
-      <c r="AF17" s="301"/>
-      <c r="AG17" s="302" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH17" s="302"/>
-      <c r="AI17" s="302"/>
-      <c r="AJ17" s="302"/>
-      <c r="AK17" s="302"/>
-      <c r="AL17" s="302"/>
-      <c r="AM17" s="302"/>
-      <c r="AN17" s="302"/>
-      <c r="AO17" s="302"/>
-      <c r="AP17" s="302"/>
-      <c r="AQ17" s="302"/>
-      <c r="AR17" s="302"/>
-      <c r="AS17" s="302"/>
+      <c r="AH17" s="305"/>
+      <c r="AI17" s="305"/>
+      <c r="AJ17" s="305"/>
+      <c r="AK17" s="305"/>
+      <c r="AL17" s="305"/>
+      <c r="AM17" s="305"/>
+      <c r="AN17" s="305"/>
+      <c r="AO17" s="305"/>
+      <c r="AP17" s="305"/>
+      <c r="AQ17" s="305"/>
+      <c r="AR17" s="305"/>
+      <c r="AS17" s="305"/>
     </row>
     <row r="18" spans="1:45" ht="17.5" customHeight="1">
-      <c r="A18" s="303">
+      <c r="A18" s="295">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="305" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="304" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="303" t="s">
+      <c r="B18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="298" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="296" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="295" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="296">
+        <v>1</v>
+      </c>
+      <c r="T18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="295" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="304">
-        <v>1</v>
-      </c>
-      <c r="T18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="303" t="s">
+      <c r="W18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="295"/>
+      <c r="AF18" s="296"/>
+      <c r="AG18" s="297" t="s">
         <v>26</v>
       </c>
-      <c r="W18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="X18" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="303"/>
-      <c r="AF18" s="304"/>
-      <c r="AG18" s="306" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="306" t="s">
+      <c r="AH18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="297" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="17.5" customHeight="1">
-      <c r="A19" s="303">
+      <c r="A19" s="295">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="305" t="s">
+      <c r="B19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="304" t="s">
+      <c r="J19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="295" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="303" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="304">
+      <c r="O19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="296">
         <v>19</v>
       </c>
-      <c r="T19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="303" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="304"/>
-      <c r="AG19" s="306" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="306" t="s">
+      <c r="T19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="295" t="s">
+        <v>25</v>
+      </c>
+      <c r="W19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="295"/>
+      <c r="AF19" s="296"/>
+      <c r="AG19" s="297" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="297" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="17.5" customHeight="1">
-      <c r="A20" s="303">
+      <c r="A20" s="295">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="305" t="s">
+      <c r="B20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="298" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="296" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="304" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="303" t="s">
+      <c r="J20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="295" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="296">
+        <v>19</v>
+      </c>
+      <c r="T20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="295"/>
+      <c r="W20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="295" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="295"/>
+      <c r="AF20" s="296"/>
+      <c r="AG20" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="304">
-        <v>19</v>
-      </c>
-      <c r="T20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="303"/>
-      <c r="W20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="303"/>
-      <c r="AF20" s="304"/>
-      <c r="AG20" s="306" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="306" t="s">
+      <c r="AH20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="297" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AS20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AS17"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="H3:AO3"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AS15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AS16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AS13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AS14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AS11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AS12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AS9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AS10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AS7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AS8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="A4:AS4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AS5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AS6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AG18:AS18"/>
     <mergeCell ref="A19:B19"/>
@@ -5959,169 +6146,21 @@
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="H3:AN3"/>
-    <mergeCell ref="AO3:AS3"/>
-    <mergeCell ref="A4:AS4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AS5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AS6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AS7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AS8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AS9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AS10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AS11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AS12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AS13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AS14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AS15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AS16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AS17"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AS20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
   </mergeCells>
   <phoneticPr fontId="294" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AO3" location="#表一览!A1" display="返回列表" xr:uid="{C7BB1F07-8B41-834F-8954-DDA95C103167}"/>
+    <hyperlink ref="AP3" location="#表一览!A1" display="返回列表" xr:uid="{C070514C-0B47-194A-9C8F-7EAC6A5BBA5D}"/>
   </hyperlinks>
   <pageMargins left="0.05" right="0.05" top="0.15" bottom="0.15" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
